--- a/人升.xlsx
+++ b/人升.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\张冶国\Desktop\奇特的一生\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\张冶国\Desktop\奇特的一生\mystrangetime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB39E4E3-8869-4F48-AC3E-FBFECD0AB093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D24E7C-559A-4E61-9FE7-2E2237BE14BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2568" yWindow="2328" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -358,10 +358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -386,6 +386,84 @@
         <v>1070</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45053</v>
+      </c>
+      <c r="B3">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45057</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45058</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45059</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45060</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45061</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45062</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>45064</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45065</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45066</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>45067</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/人升.xlsx
+++ b/人升.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\张冶国\Desktop\奇特的一生\mystrangetime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D24E7C-559A-4E61-9FE7-2E2237BE14BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5BA309-87AF-4F45-ADD1-B2C5BDB96C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2568" yWindow="2328" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,7 +361,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -398,10 +398,16 @@
       <c r="A4" s="1">
         <v>45054</v>
       </c>
+      <c r="B4">
+        <v>1456</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45055</v>
+      </c>
+      <c r="B5">
+        <v>1481</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">

--- a/人升.xlsx
+++ b/人升.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\张冶国\Desktop\奇特的一生\mystrangetime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5BA309-87AF-4F45-ADD1-B2C5BDB96C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E33C75-0D86-4335-AA9E-35B64C521FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2568" yWindow="2328" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,13 +54,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -75,9 +88,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -358,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -414,60 +430,699 @@
       <c r="A6" s="1">
         <v>45056</v>
       </c>
+      <c r="B6">
+        <v>1583</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45057</v>
       </c>
+      <c r="B7">
+        <v>1613</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45058</v>
       </c>
+      <c r="B8">
+        <v>1650</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45059</v>
       </c>
+      <c r="B9">
+        <v>1700</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45060</v>
       </c>
+      <c r="B10">
+        <v>1750</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45061</v>
       </c>
+      <c r="B11">
+        <v>1800</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45062</v>
       </c>
+      <c r="B12">
+        <v>1850</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45063</v>
       </c>
+      <c r="B13">
+        <v>1900</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45064</v>
       </c>
+      <c r="B14">
+        <v>1950</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45065</v>
       </c>
+      <c r="B15">
+        <v>2000</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45066</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45067</v>
+      </c>
+      <c r="B17">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>45068</v>
+      </c>
+      <c r="B18">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>45069</v>
+      </c>
+      <c r="B19">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>45070</v>
+      </c>
+      <c r="B20">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>45071</v>
+      </c>
+      <c r="B21">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>45072</v>
+      </c>
+      <c r="B22">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>45073</v>
+      </c>
+      <c r="B23">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>45074</v>
+      </c>
+      <c r="B24">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>45075</v>
+      </c>
+      <c r="B25">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>45076</v>
+      </c>
+      <c r="B26">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>45077</v>
+      </c>
+      <c r="B27">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>45078</v>
+      </c>
+      <c r="B28">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>45079</v>
+      </c>
+      <c r="B29">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>45080</v>
+      </c>
+      <c r="B30">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>45081</v>
+      </c>
+      <c r="B31">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>45082</v>
+      </c>
+      <c r="B32" s="2">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>45083</v>
+      </c>
+      <c r="B33" s="2">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>45084</v>
+      </c>
+      <c r="B34">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>45085</v>
+      </c>
+      <c r="B35">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>45086</v>
+      </c>
+      <c r="B36">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>45087</v>
+      </c>
+      <c r="B37" s="2">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>45088</v>
+      </c>
+      <c r="B38">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>45089</v>
+      </c>
+      <c r="B39">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B40">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>45091</v>
+      </c>
+      <c r="B41">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>45092</v>
+      </c>
+      <c r="B42">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>45093</v>
+      </c>
+      <c r="B43">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>45094</v>
+      </c>
+      <c r="B44">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>45095</v>
+      </c>
+      <c r="B45">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45096</v>
+      </c>
+      <c r="B46">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>45097</v>
+      </c>
+      <c r="B47">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>45098</v>
+      </c>
+      <c r="B48">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>45099</v>
+      </c>
+      <c r="B49">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>45100</v>
+      </c>
+      <c r="B50">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>45101</v>
+      </c>
+      <c r="B51">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>45102</v>
+      </c>
+      <c r="B52">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>45103</v>
+      </c>
+      <c r="B53">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>45104</v>
+      </c>
+      <c r="B54">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>45105</v>
+      </c>
+      <c r="B55">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>45106</v>
+      </c>
+      <c r="B56">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>45107</v>
+      </c>
+      <c r="B57">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>45108</v>
+      </c>
+      <c r="B58">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>45109</v>
+      </c>
+      <c r="B59">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>45110</v>
+      </c>
+      <c r="B60" s="4">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>45111</v>
+      </c>
+      <c r="B61">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>45112</v>
+      </c>
+      <c r="B62">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>45113</v>
+      </c>
+      <c r="B63" s="3">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>45114</v>
+      </c>
+      <c r="B64">
+        <v>6700</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>45115</v>
+      </c>
+      <c r="B65">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>45116</v>
+      </c>
+      <c r="B66">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>45117</v>
+      </c>
+      <c r="B67">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>45118</v>
+      </c>
+      <c r="B68">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>45119</v>
+      </c>
+      <c r="B69">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>45120</v>
+      </c>
+      <c r="B70">
+        <v>7300</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>45121</v>
+      </c>
+      <c r="B71">
+        <v>7400</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>45122</v>
+      </c>
+      <c r="B72">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>45123</v>
+      </c>
+      <c r="B73">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>45124</v>
+      </c>
+      <c r="B74">
+        <v>7700</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>45125</v>
+      </c>
+      <c r="B75">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>45126</v>
+      </c>
+      <c r="B76">
+        <v>7900</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>45127</v>
+      </c>
+      <c r="B77">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>45128</v>
+      </c>
+      <c r="B78">
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>45129</v>
+      </c>
+      <c r="B79">
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>45130</v>
+      </c>
+      <c r="B80">
+        <v>8300</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>45131</v>
+      </c>
+      <c r="B81">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>45132</v>
+      </c>
+      <c r="B82">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>45133</v>
+      </c>
+      <c r="B83">
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>45134</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>45135</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>45136</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>45137</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>45138</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>45140</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>45141</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>45142</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>45143</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>45144</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>45145</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>45146</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>45147</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>45148</v>
       </c>
     </row>
   </sheetData>
